--- a/modelos/OBAFAR4421408/OBAFAR4421408_Sell in_metricas.xlsx
+++ b/modelos/OBAFAR4421408/OBAFAR4421408_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44589</v>
       </c>
       <c r="B2" t="n">
-        <v>10.47287472494694</v>
+        <v>4.109180292228386</v>
       </c>
       <c r="C2" t="n">
-        <v>-64.38380504707975</v>
+        <v>-75.89423302126687</v>
       </c>
       <c r="D2" t="n">
-        <v>89.79220125299567</v>
+        <v>83.45050206055431</v>
       </c>
       <c r="E2" t="n">
         <v>90</v>
@@ -496,13 +496,13 @@
         <v>44592</v>
       </c>
       <c r="B3" t="n">
-        <v>76.05953924878617</v>
+        <v>71.64687798333507</v>
       </c>
       <c r="C3" t="n">
-        <v>1.091565391867829</v>
+        <v>-12.54066123129665</v>
       </c>
       <c r="D3" t="n">
-        <v>161.0633263631212</v>
+        <v>152.2115409732147</v>
       </c>
       <c r="E3" t="n">
         <v>20</v>
@@ -516,13 +516,13 @@
         <v>44596</v>
       </c>
       <c r="B4" t="n">
-        <v>15.49027835499765</v>
+        <v>11.97622337346473</v>
       </c>
       <c r="C4" t="n">
-        <v>-69.68085401976603</v>
+        <v>-62.92966667867736</v>
       </c>
       <c r="D4" t="n">
-        <v>96.17400487133399</v>
+        <v>90.64181592643449</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -536,13 +536,13 @@
         <v>44600</v>
       </c>
       <c r="B5" t="n">
-        <v>20.34311445523903</v>
+        <v>24.65728938736263</v>
       </c>
       <c r="C5" t="n">
-        <v>-68.58303898384465</v>
+        <v>-53.21522530850773</v>
       </c>
       <c r="D5" t="n">
-        <v>102.8902389303548</v>
+        <v>99.05748105521667</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -556,13 +556,13 @@
         <v>44607</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.798034884301522</v>
+        <v>0.7236940645282779</v>
       </c>
       <c r="C6" t="n">
-        <v>-81.64616160540027</v>
+        <v>-74.81418673980932</v>
       </c>
       <c r="D6" t="n">
-        <v>80.49334246280024</v>
+        <v>74.03242817808847</v>
       </c>
       <c r="E6" t="n">
         <v>20</v>
@@ -576,13 +576,13 @@
         <v>44617</v>
       </c>
       <c r="B7" t="n">
-        <v>31.35996514098613</v>
+        <v>18.94630385726119</v>
       </c>
       <c r="C7" t="n">
-        <v>-55.13600025160083</v>
+        <v>-65.69381229986497</v>
       </c>
       <c r="D7" t="n">
-        <v>109.2098530334854</v>
+        <v>87.80976380752978</v>
       </c>
       <c r="E7" t="n">
         <v>30</v>
@@ -596,13 +596,13 @@
         <v>44624</v>
       </c>
       <c r="B8" t="n">
-        <v>85.72217774687979</v>
+        <v>82.56982452772725</v>
       </c>
       <c r="C8" t="n">
-        <v>2.254626162788083</v>
+        <v>4.557508597890852</v>
       </c>
       <c r="D8" t="n">
-        <v>164.1185108650946</v>
+        <v>156.6239265795314</v>
       </c>
       <c r="E8" t="n">
         <v>20</v>
@@ -616,13 +616,13 @@
         <v>44631</v>
       </c>
       <c r="B9" t="n">
-        <v>77.58033226844961</v>
+        <v>80.9823257486933</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.06488261836956</v>
+        <v>3.631887651526476</v>
       </c>
       <c r="D9" t="n">
-        <v>158.8243335851175</v>
+        <v>162.3201607990852</v>
       </c>
       <c r="E9" t="n">
         <v>60</v>
@@ -636,13 +636,13 @@
         <v>44638</v>
       </c>
       <c r="B10" t="n">
-        <v>15.17392474961303</v>
+        <v>12.35989269179125</v>
       </c>
       <c r="C10" t="n">
-        <v>-67.2206804361205</v>
+        <v>-59.52271629194775</v>
       </c>
       <c r="D10" t="n">
-        <v>92.3150992059</v>
+        <v>90.80070787783202</v>
       </c>
       <c r="E10" t="n">
         <v>20</v>
@@ -656,13 +656,13 @@
         <v>44642</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.451815215633367</v>
+        <v>-2.069365347244831</v>
       </c>
       <c r="C11" t="n">
-        <v>-80.83219043173007</v>
+        <v>-74.6479368699661</v>
       </c>
       <c r="D11" t="n">
-        <v>77.86942544951773</v>
+        <v>78.50136791784669</v>
       </c>
       <c r="E11" t="n">
         <v>50</v>
@@ -676,13 +676,13 @@
         <v>44649</v>
       </c>
       <c r="B12" t="n">
-        <v>5.038570726336784</v>
+        <v>1.274430141312237</v>
       </c>
       <c r="C12" t="n">
-        <v>-72.32310417830328</v>
+        <v>-78.02712370125012</v>
       </c>
       <c r="D12" t="n">
-        <v>86.11991436628182</v>
+        <v>68.07433650710745</v>
       </c>
       <c r="E12" t="n">
         <v>30</v>
@@ -696,13 +696,13 @@
         <v>44656</v>
       </c>
       <c r="B13" t="n">
-        <v>129.1982489798453</v>
+        <v>132.6297298675217</v>
       </c>
       <c r="C13" t="n">
-        <v>57.97590732025574</v>
+        <v>60.98677506420928</v>
       </c>
       <c r="D13" t="n">
-        <v>210.8635842262153</v>
+        <v>208.7112723253601</v>
       </c>
       <c r="E13" t="n">
         <v>20</v>
@@ -716,13 +716,13 @@
         <v>44677</v>
       </c>
       <c r="B14" t="n">
-        <v>351.2701769829315</v>
+        <v>376.4544071983987</v>
       </c>
       <c r="C14" t="n">
-        <v>269.4372764329553</v>
+        <v>304.5069925805969</v>
       </c>
       <c r="D14" t="n">
-        <v>431.9023930880244</v>
+        <v>452.1390952987189</v>
       </c>
       <c r="E14" t="n">
         <v>560</v>
@@ -736,13 +736,13 @@
         <v>44684</v>
       </c>
       <c r="B15" t="n">
-        <v>254.2437522799981</v>
+        <v>245.5422834225266</v>
       </c>
       <c r="C15" t="n">
-        <v>177.8898613906022</v>
+        <v>167.0530827720117</v>
       </c>
       <c r="D15" t="n">
-        <v>339.1204703629691</v>
+        <v>318.3139989762062</v>
       </c>
       <c r="E15" t="n">
         <v>200</v>
@@ -756,13 +756,13 @@
         <v>44691</v>
       </c>
       <c r="B16" t="n">
-        <v>63.4439094951031</v>
+        <v>30.48901248679646</v>
       </c>
       <c r="C16" t="n">
-        <v>-17.67728378715316</v>
+        <v>-41.21319798702029</v>
       </c>
       <c r="D16" t="n">
-        <v>146.4361782010938</v>
+        <v>106.7549763135206</v>
       </c>
       <c r="E16" t="n">
         <v>40</v>
@@ -776,13 +776,13 @@
         <v>44698</v>
       </c>
       <c r="B17" t="n">
-        <v>3.014037445545698</v>
+        <v>-32.85698049928545</v>
       </c>
       <c r="C17" t="n">
-        <v>-75.13200336736158</v>
+        <v>-108.8759096144331</v>
       </c>
       <c r="D17" t="n">
-        <v>81.37454319283962</v>
+        <v>48.88814293574218</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -796,13 +796,13 @@
         <v>44705</v>
       </c>
       <c r="B18" t="n">
-        <v>47.78730980281161</v>
+        <v>29.06466708996766</v>
       </c>
       <c r="C18" t="n">
-        <v>-34.84926720295756</v>
+        <v>-47.19012485592563</v>
       </c>
       <c r="D18" t="n">
-        <v>129.4288553550622</v>
+        <v>99.34731411562812</v>
       </c>
       <c r="E18" t="n">
         <v>20</v>
@@ -816,13 +816,13 @@
         <v>44715</v>
       </c>
       <c r="B19" t="n">
-        <v>62.93291347226115</v>
+        <v>67.57407300516886</v>
       </c>
       <c r="C19" t="n">
-        <v>-11.96398416986467</v>
+        <v>-8.588216057476</v>
       </c>
       <c r="D19" t="n">
-        <v>137.2503362579377</v>
+        <v>151.5295508136294</v>
       </c>
       <c r="E19" t="n">
         <v>30</v>
@@ -836,13 +836,13 @@
         <v>44719</v>
       </c>
       <c r="B20" t="n">
-        <v>60.32893738729538</v>
+        <v>75.44269078540285</v>
       </c>
       <c r="C20" t="n">
-        <v>-22.30336733859205</v>
+        <v>3.323180449397106</v>
       </c>
       <c r="D20" t="n">
-        <v>141.79893870801</v>
+        <v>158.3636248692668</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -856,13 +856,13 @@
         <v>44729</v>
       </c>
       <c r="B21" t="n">
-        <v>-26.48982690909343</v>
+        <v>-30.32493500823842</v>
       </c>
       <c r="C21" t="n">
-        <v>-104.4519645539145</v>
+        <v>-105.8213994625094</v>
       </c>
       <c r="D21" t="n">
-        <v>49.77588552871676</v>
+        <v>42.09338667286688</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -876,13 +876,13 @@
         <v>44733</v>
       </c>
       <c r="B22" t="n">
-        <v>-10.02204267162015</v>
+        <v>-6.32171684152459</v>
       </c>
       <c r="C22" t="n">
-        <v>-88.03358733903366</v>
+        <v>-82.42468893008105</v>
       </c>
       <c r="D22" t="n">
-        <v>68.55789903919069</v>
+        <v>72.37657168670428</v>
       </c>
       <c r="E22" t="n">
         <v>20</v>
@@ -896,13 +896,13 @@
         <v>44740</v>
       </c>
       <c r="B23" t="n">
-        <v>4.17856660929422</v>
+        <v>5.591936408333117</v>
       </c>
       <c r="C23" t="n">
-        <v>-71.45611836669734</v>
+        <v>-71.07476367189436</v>
       </c>
       <c r="D23" t="n">
-        <v>86.29355961079152</v>
+        <v>77.94232049858793</v>
       </c>
       <c r="E23" t="n">
         <v>40</v>
@@ -916,13 +916,13 @@
         <v>44743</v>
       </c>
       <c r="B24" t="n">
-        <v>-8.748202551044304</v>
+        <v>-14.31753124655778</v>
       </c>
       <c r="C24" t="n">
-        <v>-85.15172312824275</v>
+        <v>-87.6803280374543</v>
       </c>
       <c r="D24" t="n">
-        <v>64.41342722882317</v>
+        <v>61.52821418237695</v>
       </c>
       <c r="E24" t="n">
         <v>20</v>
@@ -936,13 +936,13 @@
         <v>44757</v>
       </c>
       <c r="B25" t="n">
-        <v>-42.52554314355977</v>
+        <v>-39.99872119305817</v>
       </c>
       <c r="C25" t="n">
-        <v>-118.2864590307251</v>
+        <v>-113.9913190673051</v>
       </c>
       <c r="D25" t="n">
-        <v>34.17660103858184</v>
+        <v>38.83053065807031</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -956,13 +956,13 @@
         <v>44761</v>
       </c>
       <c r="B26" t="n">
-        <v>-38.7875072528111</v>
+        <v>-28.51921214937773</v>
       </c>
       <c r="C26" t="n">
-        <v>-113.7322937565425</v>
+        <v>-111.4467717075522</v>
       </c>
       <c r="D26" t="n">
-        <v>45.38587340625435</v>
+        <v>45.64993943430421</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -976,13 +976,13 @@
         <v>44803</v>
       </c>
       <c r="B27" t="n">
-        <v>-22.05265404858198</v>
+        <v>-15.69222745531442</v>
       </c>
       <c r="C27" t="n">
-        <v>-98.98780976007588</v>
+        <v>-89.08849738639425</v>
       </c>
       <c r="D27" t="n">
-        <v>61.45483075496841</v>
+        <v>60.7289183227785</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -996,13 +996,13 @@
         <v>44810</v>
       </c>
       <c r="B28" t="n">
-        <v>-4.499611561996147</v>
+        <v>-2.40379963814267</v>
       </c>
       <c r="C28" t="n">
-        <v>-84.39388720130468</v>
+        <v>-80.80024943255428</v>
       </c>
       <c r="D28" t="n">
-        <v>73.42560759502952</v>
+        <v>72.60121835223242</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -1016,13 +1016,13 @@
         <v>44817</v>
       </c>
       <c r="B29" t="n">
-        <v>14.11879165629104</v>
+        <v>20.31417254394558</v>
       </c>
       <c r="C29" t="n">
-        <v>-67.51750590313914</v>
+        <v>-53.72456555758421</v>
       </c>
       <c r="D29" t="n">
-        <v>89.81153051042003</v>
+        <v>97.57774920111665</v>
       </c>
       <c r="E29" t="n">
         <v>30</v>
@@ -1036,13 +1036,13 @@
         <v>44824</v>
       </c>
       <c r="B30" t="n">
-        <v>26.14636984469261</v>
+        <v>32.36696132460317</v>
       </c>
       <c r="C30" t="n">
-        <v>-53.08485089910634</v>
+        <v>-37.79005575294808</v>
       </c>
       <c r="D30" t="n">
-        <v>100.2021560722891</v>
+        <v>104.0424381955482</v>
       </c>
       <c r="E30" t="n">
         <v>30</v>
@@ -1056,13 +1056,13 @@
         <v>44831</v>
       </c>
       <c r="B31" t="n">
-        <v>34.01701045219204</v>
+        <v>40.69537049755478</v>
       </c>
       <c r="C31" t="n">
-        <v>-48.5157289978326</v>
+        <v>-30.87314863051099</v>
       </c>
       <c r="D31" t="n">
-        <v>103.5937086023205</v>
+        <v>111.931428483233</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -1076,13 +1076,13 @@
         <v>44852</v>
       </c>
       <c r="B32" t="n">
-        <v>41.90192062275548</v>
+        <v>47.55536348428708</v>
       </c>
       <c r="C32" t="n">
-        <v>-36.49497230404022</v>
+        <v>-23.79572565941191</v>
       </c>
       <c r="D32" t="n">
-        <v>118.7858921286261</v>
+        <v>124.5902198795258</v>
       </c>
       <c r="E32" t="n">
         <v>30</v>
@@ -1096,13 +1096,13 @@
         <v>44918</v>
       </c>
       <c r="B33" t="n">
-        <v>39.38502397239527</v>
+        <v>38.26532648276171</v>
       </c>
       <c r="C33" t="n">
-        <v>-35.09108243920643</v>
+        <v>-37.15619665142574</v>
       </c>
       <c r="D33" t="n">
-        <v>111.9609355383323</v>
+        <v>104.5075578221922</v>
       </c>
       <c r="E33" t="n">
         <v>150</v>
@@ -1116,13 +1116,13 @@
         <v>44922</v>
       </c>
       <c r="B34" t="n">
-        <v>74.6839502372528</v>
+        <v>82.373350452445</v>
       </c>
       <c r="C34" t="n">
-        <v>-4.46297199831666</v>
+        <v>9.08025316933529</v>
       </c>
       <c r="D34" t="n">
-        <v>153.0938381396908</v>
+        <v>161.7786475800253</v>
       </c>
       <c r="E34" t="n">
         <v>70</v>
@@ -1136,13 +1136,13 @@
         <v>44932</v>
       </c>
       <c r="B35" t="n">
-        <v>43.71737056100854</v>
+        <v>46.45089773156764</v>
       </c>
       <c r="C35" t="n">
-        <v>-34.15341409132276</v>
+        <v>-33.37234315363651</v>
       </c>
       <c r="D35" t="n">
-        <v>120.8855553861741</v>
+        <v>119.0336000329868</v>
       </c>
       <c r="E35" t="n">
         <v>50</v>
@@ -1156,13 +1156,13 @@
         <v>44936</v>
       </c>
       <c r="B36" t="n">
-        <v>33.42359648260446</v>
+        <v>43.0748662736815</v>
       </c>
       <c r="C36" t="n">
-        <v>-41.5124732612669</v>
+        <v>-30.67161006095537</v>
       </c>
       <c r="D36" t="n">
-        <v>109.2641936084655</v>
+        <v>117.3407356052851</v>
       </c>
       <c r="E36" t="n">
         <v>110</v>
@@ -1176,13 +1176,13 @@
         <v>44943</v>
       </c>
       <c r="B37" t="n">
-        <v>13.71708292464145</v>
+        <v>17.44113136600418</v>
       </c>
       <c r="C37" t="n">
-        <v>-65.12625984988642</v>
+        <v>-59.34425843764344</v>
       </c>
       <c r="D37" t="n">
-        <v>92.19384698775164</v>
+        <v>89.90009671995323</v>
       </c>
       <c r="E37" t="n">
         <v>90</v>
@@ -1196,13 +1196,13 @@
         <v>44950</v>
       </c>
       <c r="B38" t="n">
-        <v>25.66280872782978</v>
+        <v>29.09954010767982</v>
       </c>
       <c r="C38" t="n">
-        <v>-49.41341506661018</v>
+        <v>-44.73446689806143</v>
       </c>
       <c r="D38" t="n">
-        <v>103.0487900079512</v>
+        <v>102.1604395839025</v>
       </c>
       <c r="E38" t="n">
         <v>20</v>
@@ -1216,13 +1216,13 @@
         <v>44957</v>
       </c>
       <c r="B39" t="n">
-        <v>35.11505827925359</v>
+        <v>39.29847616279511</v>
       </c>
       <c r="C39" t="n">
-        <v>-49.89319401383333</v>
+        <v>-44.0165232192314</v>
       </c>
       <c r="D39" t="n">
-        <v>110.7101395190501</v>
+        <v>116.4581375195329</v>
       </c>
       <c r="E39" t="n">
         <v>20</v>
@@ -1236,13 +1236,13 @@
         <v>44967</v>
       </c>
       <c r="B40" t="n">
-        <v>-10.25009665028961</v>
+        <v>-12.65627507446385</v>
       </c>
       <c r="C40" t="n">
-        <v>-84.04229130439946</v>
+        <v>-88.20990199798791</v>
       </c>
       <c r="D40" t="n">
-        <v>69.13856264335513</v>
+        <v>58.85731398712597</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -1256,13 +1256,13 @@
         <v>44971</v>
       </c>
       <c r="B41" t="n">
-        <v>-4.064629227127173</v>
+        <v>-0.5906292673536973</v>
       </c>
       <c r="C41" t="n">
-        <v>-80.31932477923014</v>
+        <v>-74.01635029536969</v>
       </c>
       <c r="D41" t="n">
-        <v>71.82244974274053</v>
+        <v>70.16573463778001</v>
       </c>
       <c r="E41" t="n">
         <v>30</v>
@@ -1276,13 +1276,13 @@
         <v>44980</v>
       </c>
       <c r="B42" t="n">
-        <v>-35.85239751252631</v>
+        <v>-37.48803227872423</v>
       </c>
       <c r="C42" t="n">
-        <v>-110.1349295771398</v>
+        <v>-113.8304024772157</v>
       </c>
       <c r="D42" t="n">
-        <v>41.45561031458289</v>
+        <v>36.84487201291697</v>
       </c>
       <c r="E42" t="n">
         <v>40</v>
@@ -1296,13 +1296,13 @@
         <v>44988</v>
       </c>
       <c r="B43" t="n">
-        <v>66.24616026261843</v>
+        <v>59.94651062858939</v>
       </c>
       <c r="C43" t="n">
-        <v>-10.06060174378382</v>
+        <v>-12.4450811905255</v>
       </c>
       <c r="D43" t="n">
-        <v>144.6286250986034</v>
+        <v>131.1110577626354</v>
       </c>
       <c r="E43" t="n">
         <v>10</v>
@@ -1316,13 +1316,13 @@
         <v>44995</v>
       </c>
       <c r="B44" t="n">
-        <v>82.66580610765237</v>
+        <v>81.37045132476074</v>
       </c>
       <c r="C44" t="n">
-        <v>8.478487683338258</v>
+        <v>10.83283795552514</v>
       </c>
       <c r="D44" t="n">
-        <v>166.1853059802652</v>
+        <v>158.348007721926</v>
       </c>
       <c r="E44" t="n">
         <v>30</v>
@@ -1336,13 +1336,13 @@
         <v>44999</v>
       </c>
       <c r="B45" t="n">
-        <v>82.56026077297348</v>
+        <v>88.69628592723163</v>
       </c>
       <c r="C45" t="n">
-        <v>5.23933084256019</v>
+        <v>17.84819910389652</v>
       </c>
       <c r="D45" t="n">
-        <v>160.015402046002</v>
+        <v>163.4762984383083</v>
       </c>
       <c r="E45" t="n">
         <v>10</v>
@@ -1356,13 +1356,13 @@
         <v>45006</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.7667014662129983</v>
+        <v>2.697430643022287</v>
       </c>
       <c r="C46" t="n">
-        <v>-73.34760689588624</v>
+        <v>-68.72698715801154</v>
       </c>
       <c r="D46" t="n">
-        <v>79.24187978283543</v>
+        <v>78.97732893067504</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -1376,13 +1376,13 @@
         <v>45016</v>
       </c>
       <c r="B47" t="n">
-        <v>-14.01315685988538</v>
+        <v>-22.02989333383849</v>
       </c>
       <c r="C47" t="n">
-        <v>-89.20333618933833</v>
+        <v>-96.50238844738641</v>
       </c>
       <c r="D47" t="n">
-        <v>61.79036607886607</v>
+        <v>53.8148425849643</v>
       </c>
       <c r="E47" t="n">
         <v>160</v>
@@ -1396,13 +1396,13 @@
         <v>45020</v>
       </c>
       <c r="B48" t="n">
-        <v>84.94578063443615</v>
+        <v>85.75645658038864</v>
       </c>
       <c r="C48" t="n">
-        <v>5.360641478188539</v>
+        <v>15.46558703383177</v>
       </c>
       <c r="D48" t="n">
-        <v>162.4666643613097</v>
+        <v>156.5135140237298</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
@@ -1416,13 +1416,13 @@
         <v>45048</v>
       </c>
       <c r="B49" t="n">
-        <v>266.0805618443986</v>
+        <v>266.1951674638013</v>
       </c>
       <c r="C49" t="n">
-        <v>192.0068270775413</v>
+        <v>193.5176561693912</v>
       </c>
       <c r="D49" t="n">
-        <v>343.8265092000641</v>
+        <v>339.676461890064</v>
       </c>
       <c r="E49" t="n">
         <v>90</v>
@@ -1436,13 +1436,13 @@
         <v>45055</v>
       </c>
       <c r="B50" t="n">
-        <v>66.14683445728623</v>
+        <v>47.85781037001676</v>
       </c>
       <c r="C50" t="n">
-        <v>-14.18266843010469</v>
+        <v>-31.41281410579854</v>
       </c>
       <c r="D50" t="n">
-        <v>145.8829971436699</v>
+        <v>123.6332633698245</v>
       </c>
       <c r="E50" t="n">
         <v>50</v>
@@ -1456,13 +1456,13 @@
         <v>45062</v>
       </c>
       <c r="B51" t="n">
-        <v>-5.448725688024258</v>
+        <v>-31.3298468500491</v>
       </c>
       <c r="C51" t="n">
-        <v>-90.09749066712168</v>
+        <v>-110.8858725437837</v>
       </c>
       <c r="D51" t="n">
-        <v>72.7115549019163</v>
+        <v>43.63882160788261</v>
       </c>
       <c r="E51" t="n">
         <v>20</v>
@@ -1537,22 +1537,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>4820.796918278871</v>
+        <v>5053.523562827933</v>
       </c>
       <c r="C2" t="n">
-        <v>69.43195891143264</v>
+        <v>71.08813939630107</v>
       </c>
       <c r="D2" t="n">
-        <v>49.7772555790273</v>
+        <v>50.87681724222968</v>
       </c>
       <c r="E2" t="n">
-        <v>1.685137522183731</v>
+        <v>1.638976085141036</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8836347252783674</v>
+        <v>0.9543424411974624</v>
       </c>
       <c r="G2" t="n">
-        <v>1.041842043763734</v>
+        <v>1.081384215844623</v>
       </c>
       <c r="H2" t="n">
         <v>0.7692307692307692</v>
@@ -1563,22 +1563,22 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>6574.822363041305</v>
+        <v>5491.490682690101</v>
       </c>
       <c r="C3" t="n">
-        <v>81.085278337324</v>
+        <v>74.10459285827095</v>
       </c>
       <c r="D3" t="n">
-        <v>54.67039632488212</v>
+        <v>52.08662281814736</v>
       </c>
       <c r="E3" t="n">
-        <v>1.343442722282245</v>
+        <v>1.781591750865444</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7970660451065372</v>
+        <v>0.6567174721450275</v>
       </c>
       <c r="G3" t="n">
-        <v>1.012069824968582</v>
+        <v>1.034629369398954</v>
       </c>
       <c r="H3" t="n">
         <v>0.875</v>
@@ -1589,22 +1589,22 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>5888.392278590283</v>
+        <v>4926.672547237182</v>
       </c>
       <c r="C4" t="n">
-        <v>76.73586044731813</v>
+        <v>70.19025963221095</v>
       </c>
       <c r="D4" t="n">
-        <v>54.94822490966293</v>
+        <v>51.99867385118489</v>
       </c>
       <c r="E4" t="n">
-        <v>1.635349570313658</v>
+        <v>1.941742180525706</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6985962554454301</v>
+        <v>0.453233354498383</v>
       </c>
       <c r="G4" t="n">
-        <v>1.043092495991187</v>
+        <v>1.053120352567917</v>
       </c>
       <c r="H4" t="n">
         <v>0.9</v>
@@ -1615,25 +1615,25 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>2954.184238431766</v>
+        <v>3023.287905054193</v>
       </c>
       <c r="C5" t="n">
-        <v>54.35240784391954</v>
+        <v>54.98443329756335</v>
       </c>
       <c r="D5" t="n">
-        <v>39.1204355594809</v>
+        <v>39.95415095631879</v>
       </c>
       <c r="E5" t="n">
-        <v>1.91865676888352</v>
+        <v>1.983419909073675</v>
       </c>
       <c r="F5" t="n">
-        <v>1.089901744215076</v>
+        <v>1.041387306944897</v>
       </c>
       <c r="G5" t="n">
-        <v>1.273047431258443</v>
+        <v>1.247524521196818</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8888888888888886</v>
+        <v>0.8148148148148145</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAFAR4421408/OBAFAR4421408_Sell in_metricas.xlsx
+++ b/modelos/OBAFAR4421408/OBAFAR4421408_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44589</v>
       </c>
       <c r="B2" t="n">
-        <v>4.109180292228386</v>
+        <v>10.47284044946549</v>
       </c>
       <c r="C2" t="n">
-        <v>-75.89423302126687</v>
+        <v>-77.80133375313238</v>
       </c>
       <c r="D2" t="n">
-        <v>83.45050206055431</v>
+        <v>93.27526798287755</v>
       </c>
       <c r="E2" t="n">
         <v>90</v>
@@ -496,13 +496,13 @@
         <v>44592</v>
       </c>
       <c r="B3" t="n">
-        <v>71.64687798333507</v>
+        <v>76.05950429581507</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.54066123129665</v>
+        <v>-5.57589314680077</v>
       </c>
       <c r="D3" t="n">
-        <v>152.2115409732147</v>
+        <v>153.6433353946799</v>
       </c>
       <c r="E3" t="n">
         <v>20</v>
@@ -516,13 +516,13 @@
         <v>44596</v>
       </c>
       <c r="B4" t="n">
-        <v>11.97622337346473</v>
+        <v>15.48431297330962</v>
       </c>
       <c r="C4" t="n">
-        <v>-62.92966667867736</v>
+        <v>-69.94894716340697</v>
       </c>
       <c r="D4" t="n">
-        <v>90.64181592643449</v>
+        <v>97.61425948129857</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -536,13 +536,13 @@
         <v>44600</v>
       </c>
       <c r="B5" t="n">
-        <v>24.65728938736263</v>
+        <v>20.32978382983013</v>
       </c>
       <c r="C5" t="n">
-        <v>-53.21522530850773</v>
+        <v>-62.71013622801545</v>
       </c>
       <c r="D5" t="n">
-        <v>99.05748105521667</v>
+        <v>103.8442771118389</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -556,13 +556,13 @@
         <v>44607</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7236940645282779</v>
+        <v>-1.782954335491155</v>
       </c>
       <c r="C6" t="n">
-        <v>-74.81418673980932</v>
+        <v>-86.20065995346273</v>
       </c>
       <c r="D6" t="n">
-        <v>74.03242817808847</v>
+        <v>71.33229424735377</v>
       </c>
       <c r="E6" t="n">
         <v>20</v>
@@ -576,13 +576,13 @@
         <v>44617</v>
       </c>
       <c r="B7" t="n">
-        <v>18.94630385726119</v>
+        <v>31.35986812959638</v>
       </c>
       <c r="C7" t="n">
-        <v>-65.69381229986497</v>
+        <v>-52.35936404114187</v>
       </c>
       <c r="D7" t="n">
-        <v>87.80976380752978</v>
+        <v>114.8351199087589</v>
       </c>
       <c r="E7" t="n">
         <v>30</v>
@@ -596,13 +596,13 @@
         <v>44624</v>
       </c>
       <c r="B8" t="n">
-        <v>82.56982452772725</v>
+        <v>86.10297057460909</v>
       </c>
       <c r="C8" t="n">
-        <v>4.557508597890852</v>
+        <v>3.04248197163324</v>
       </c>
       <c r="D8" t="n">
-        <v>156.6239265795314</v>
+        <v>165.2578293041371</v>
       </c>
       <c r="E8" t="n">
         <v>20</v>
@@ -616,13 +616,13 @@
         <v>44631</v>
       </c>
       <c r="B9" t="n">
-        <v>80.9823257486933</v>
+        <v>77.57798692004816</v>
       </c>
       <c r="C9" t="n">
-        <v>3.631887651526476</v>
+        <v>-7.433041032253756</v>
       </c>
       <c r="D9" t="n">
-        <v>162.3201607990852</v>
+        <v>155.9584666016733</v>
       </c>
       <c r="E9" t="n">
         <v>60</v>
@@ -636,13 +636,13 @@
         <v>44638</v>
       </c>
       <c r="B10" t="n">
-        <v>12.35989269179125</v>
+        <v>11.67615022197694</v>
       </c>
       <c r="C10" t="n">
-        <v>-59.52271629194775</v>
+        <v>-77.50476139743601</v>
       </c>
       <c r="D10" t="n">
-        <v>90.80070787783202</v>
+        <v>88.69186539205842</v>
       </c>
       <c r="E10" t="n">
         <v>20</v>
@@ -656,13 +656,13 @@
         <v>44642</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.069365347244831</v>
+        <v>-6.262078806917748</v>
       </c>
       <c r="C11" t="n">
-        <v>-74.6479368699661</v>
+        <v>-87.56168624908084</v>
       </c>
       <c r="D11" t="n">
-        <v>78.50136791784669</v>
+        <v>73.24127757981127</v>
       </c>
       <c r="E11" t="n">
         <v>50</v>
@@ -676,13 +676,13 @@
         <v>44649</v>
       </c>
       <c r="B12" t="n">
-        <v>1.274430141312237</v>
+        <v>5.038570632927476</v>
       </c>
       <c r="C12" t="n">
-        <v>-78.02712370125012</v>
+        <v>-71.6433047153582</v>
       </c>
       <c r="D12" t="n">
-        <v>68.07433650710745</v>
+        <v>86.97440296185367</v>
       </c>
       <c r="E12" t="n">
         <v>30</v>
@@ -696,13 +696,13 @@
         <v>44656</v>
       </c>
       <c r="B13" t="n">
-        <v>132.6297298675217</v>
+        <v>130.1885802464929</v>
       </c>
       <c r="C13" t="n">
-        <v>60.98677506420928</v>
+        <v>56.68585703017674</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7112723253601</v>
+        <v>209.0339912423989</v>
       </c>
       <c r="E13" t="n">
         <v>20</v>
@@ -716,13 +716,13 @@
         <v>44677</v>
       </c>
       <c r="B14" t="n">
-        <v>376.4544071983987</v>
+        <v>351.2714349395723</v>
       </c>
       <c r="C14" t="n">
-        <v>304.5069925805969</v>
+        <v>268.8759199744476</v>
       </c>
       <c r="D14" t="n">
-        <v>452.1390952987189</v>
+        <v>425.5407633941448</v>
       </c>
       <c r="E14" t="n">
         <v>560</v>
@@ -736,13 +736,13 @@
         <v>44684</v>
       </c>
       <c r="B15" t="n">
-        <v>245.5422834225266</v>
+        <v>255.6410813270093</v>
       </c>
       <c r="C15" t="n">
-        <v>167.0530827720117</v>
+        <v>173.52107023445</v>
       </c>
       <c r="D15" t="n">
-        <v>318.3139989762062</v>
+        <v>331.2426483756763</v>
       </c>
       <c r="E15" t="n">
         <v>200</v>
@@ -756,13 +756,13 @@
         <v>44691</v>
       </c>
       <c r="B16" t="n">
-        <v>30.48901248679646</v>
+        <v>63.40219112634048</v>
       </c>
       <c r="C16" t="n">
-        <v>-41.21319798702029</v>
+        <v>-18.42035024873717</v>
       </c>
       <c r="D16" t="n">
-        <v>106.7549763135206</v>
+        <v>142.7999499004849</v>
       </c>
       <c r="E16" t="n">
         <v>40</v>
@@ -776,13 +776,13 @@
         <v>44698</v>
       </c>
       <c r="B17" t="n">
-        <v>-32.85698049928545</v>
+        <v>3.307911610291944</v>
       </c>
       <c r="C17" t="n">
-        <v>-108.8759096144331</v>
+        <v>-79.00195165601097</v>
       </c>
       <c r="D17" t="n">
-        <v>48.88814293574218</v>
+        <v>80.94784813344592</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -796,13 +796,13 @@
         <v>44705</v>
       </c>
       <c r="B18" t="n">
-        <v>29.06466708996766</v>
+        <v>47.78731054575273</v>
       </c>
       <c r="C18" t="n">
-        <v>-47.19012485592563</v>
+        <v>-42.27385241334147</v>
       </c>
       <c r="D18" t="n">
-        <v>99.34731411562812</v>
+        <v>128.1001259194794</v>
       </c>
       <c r="E18" t="n">
         <v>20</v>
@@ -816,13 +816,13 @@
         <v>44715</v>
       </c>
       <c r="B19" t="n">
-        <v>67.57407300516886</v>
+        <v>63.30611423365157</v>
       </c>
       <c r="C19" t="n">
-        <v>-8.588216057476</v>
+        <v>-15.80655194116193</v>
       </c>
       <c r="D19" t="n">
-        <v>151.5295508136294</v>
+        <v>143.5759789794959</v>
       </c>
       <c r="E19" t="n">
         <v>30</v>
@@ -836,13 +836,13 @@
         <v>44719</v>
       </c>
       <c r="B20" t="n">
-        <v>75.44269078540285</v>
+        <v>60.33733564997407</v>
       </c>
       <c r="C20" t="n">
-        <v>3.323180449397106</v>
+        <v>-20.54915952653455</v>
       </c>
       <c r="D20" t="n">
-        <v>158.3636248692668</v>
+        <v>137.7988938535364</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -856,13 +856,13 @@
         <v>44729</v>
       </c>
       <c r="B21" t="n">
-        <v>-30.32493500823842</v>
+        <v>-28.11817876102084</v>
       </c>
       <c r="C21" t="n">
-        <v>-105.8213994625094</v>
+        <v>-109.7846184309114</v>
       </c>
       <c r="D21" t="n">
-        <v>42.09338667286688</v>
+        <v>50.83926712602707</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -876,13 +876,13 @@
         <v>44733</v>
       </c>
       <c r="B22" t="n">
-        <v>-6.32171684152459</v>
+        <v>-9.721550428708383</v>
       </c>
       <c r="C22" t="n">
-        <v>-82.42468893008105</v>
+        <v>-94.44081906537629</v>
       </c>
       <c r="D22" t="n">
-        <v>72.37657168670428</v>
+        <v>71.00725312837851</v>
       </c>
       <c r="E22" t="n">
         <v>20</v>
@@ -896,13 +896,13 @@
         <v>44740</v>
       </c>
       <c r="B23" t="n">
-        <v>5.591936408333117</v>
+        <v>5.129081993971383</v>
       </c>
       <c r="C23" t="n">
-        <v>-71.07476367189436</v>
+        <v>-72.57963392252708</v>
       </c>
       <c r="D23" t="n">
-        <v>77.94232049858793</v>
+        <v>91.68950033156366</v>
       </c>
       <c r="E23" t="n">
         <v>40</v>
@@ -916,13 +916,13 @@
         <v>44743</v>
       </c>
       <c r="B24" t="n">
-        <v>-14.31753124655778</v>
+        <v>-8.653790096545221</v>
       </c>
       <c r="C24" t="n">
-        <v>-87.6803280374543</v>
+        <v>-85.77540127835367</v>
       </c>
       <c r="D24" t="n">
-        <v>61.52821418237695</v>
+        <v>68.63049733094083</v>
       </c>
       <c r="E24" t="n">
         <v>20</v>
@@ -936,13 +936,13 @@
         <v>44757</v>
       </c>
       <c r="B25" t="n">
-        <v>-39.99872119305817</v>
+        <v>-42.61516776675589</v>
       </c>
       <c r="C25" t="n">
-        <v>-113.9913190673051</v>
+        <v>-120.4282442993517</v>
       </c>
       <c r="D25" t="n">
-        <v>38.83053065807031</v>
+        <v>31.60735346311744</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -956,13 +956,13 @@
         <v>44761</v>
       </c>
       <c r="B26" t="n">
-        <v>-28.51921214937773</v>
+        <v>-38.99953906595679</v>
       </c>
       <c r="C26" t="n">
-        <v>-111.4467717075522</v>
+        <v>-114.339675614669</v>
       </c>
       <c r="D26" t="n">
-        <v>45.64993943430421</v>
+        <v>40.95398403506931</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -976,13 +976,13 @@
         <v>44803</v>
       </c>
       <c r="B27" t="n">
-        <v>-15.69222745531442</v>
+        <v>-22.07279154041966</v>
       </c>
       <c r="C27" t="n">
-        <v>-89.08849738639425</v>
+        <v>-98.92703736603909</v>
       </c>
       <c r="D27" t="n">
-        <v>60.7289183227785</v>
+        <v>56.42916903162002</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -996,13 +996,13 @@
         <v>44810</v>
       </c>
       <c r="B28" t="n">
-        <v>-2.40379963814267</v>
+        <v>-5.633754481798142</v>
       </c>
       <c r="C28" t="n">
-        <v>-80.80024943255428</v>
+        <v>-88.63305105332586</v>
       </c>
       <c r="D28" t="n">
-        <v>72.60121835223242</v>
+        <v>74.42356990172992</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -1016,13 +1016,13 @@
         <v>44817</v>
       </c>
       <c r="B29" t="n">
-        <v>20.31417254394558</v>
+        <v>14.16673981853554</v>
       </c>
       <c r="C29" t="n">
-        <v>-53.72456555758421</v>
+        <v>-62.8663848133945</v>
       </c>
       <c r="D29" t="n">
-        <v>97.57774920111665</v>
+        <v>87.78409036258807</v>
       </c>
       <c r="E29" t="n">
         <v>30</v>
@@ -1036,13 +1036,13 @@
         <v>44824</v>
       </c>
       <c r="B30" t="n">
-        <v>32.36696132460317</v>
+        <v>26.34478711519123</v>
       </c>
       <c r="C30" t="n">
-        <v>-37.79005575294808</v>
+        <v>-52.96422726482064</v>
       </c>
       <c r="D30" t="n">
-        <v>104.0424381955482</v>
+        <v>106.2301666426392</v>
       </c>
       <c r="E30" t="n">
         <v>30</v>
@@ -1056,13 +1056,13 @@
         <v>44831</v>
       </c>
       <c r="B31" t="n">
-        <v>40.69537049755478</v>
+        <v>34.01104902392209</v>
       </c>
       <c r="C31" t="n">
-        <v>-30.87314863051099</v>
+        <v>-42.65609037601151</v>
       </c>
       <c r="D31" t="n">
-        <v>111.931428483233</v>
+        <v>112.7132852173431</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -1076,13 +1076,13 @@
         <v>44852</v>
       </c>
       <c r="B32" t="n">
-        <v>47.55536348428708</v>
+        <v>40.30483678621997</v>
       </c>
       <c r="C32" t="n">
-        <v>-23.79572565941191</v>
+        <v>-39.06653606599987</v>
       </c>
       <c r="D32" t="n">
-        <v>124.5902198795258</v>
+        <v>122.8906332479304</v>
       </c>
       <c r="E32" t="n">
         <v>30</v>
@@ -1096,13 +1096,13 @@
         <v>44918</v>
       </c>
       <c r="B33" t="n">
-        <v>38.26532648276171</v>
+        <v>39.38537476202699</v>
       </c>
       <c r="C33" t="n">
-        <v>-37.15619665142574</v>
+        <v>-39.54824243923707</v>
       </c>
       <c r="D33" t="n">
-        <v>104.5075578221922</v>
+        <v>120.6094111743608</v>
       </c>
       <c r="E33" t="n">
         <v>150</v>
@@ -1116,13 +1116,13 @@
         <v>44922</v>
       </c>
       <c r="B34" t="n">
-        <v>82.373350452445</v>
+        <v>74.68415188276416</v>
       </c>
       <c r="C34" t="n">
-        <v>9.08025316933529</v>
+        <v>-10.36793568467514</v>
       </c>
       <c r="D34" t="n">
-        <v>161.7786475800253</v>
+        <v>151.575199451359</v>
       </c>
       <c r="E34" t="n">
         <v>70</v>
@@ -1136,13 +1136,13 @@
         <v>44932</v>
       </c>
       <c r="B35" t="n">
-        <v>46.45089773156764</v>
+        <v>44.75226176959931</v>
       </c>
       <c r="C35" t="n">
-        <v>-33.37234315363651</v>
+        <v>-36.08244156764591</v>
       </c>
       <c r="D35" t="n">
-        <v>119.0336000329868</v>
+        <v>121.0061083159275</v>
       </c>
       <c r="E35" t="n">
         <v>50</v>
@@ -1156,13 +1156,13 @@
         <v>44936</v>
       </c>
       <c r="B36" t="n">
-        <v>43.0748662736815</v>
+        <v>33.83004547215035</v>
       </c>
       <c r="C36" t="n">
-        <v>-30.67161006095537</v>
+        <v>-36.36906952901303</v>
       </c>
       <c r="D36" t="n">
-        <v>117.3407356052851</v>
+        <v>112.8230864623506</v>
       </c>
       <c r="E36" t="n">
         <v>110</v>
@@ -1176,13 +1176,13 @@
         <v>44943</v>
       </c>
       <c r="B37" t="n">
-        <v>17.44113136600418</v>
+        <v>12.91798827593484</v>
       </c>
       <c r="C37" t="n">
-        <v>-59.34425843764344</v>
+        <v>-61.02901871049737</v>
       </c>
       <c r="D37" t="n">
-        <v>89.90009671995323</v>
+        <v>96.59047264427724</v>
       </c>
       <c r="E37" t="n">
         <v>90</v>
@@ -1196,13 +1196,13 @@
         <v>44950</v>
       </c>
       <c r="B38" t="n">
-        <v>29.09954010767982</v>
+        <v>26.75934728171208</v>
       </c>
       <c r="C38" t="n">
-        <v>-44.73446689806143</v>
+        <v>-48.64459314762475</v>
       </c>
       <c r="D38" t="n">
-        <v>102.1604395839025</v>
+        <v>104.8058992716774</v>
       </c>
       <c r="E38" t="n">
         <v>20</v>
@@ -1216,13 +1216,13 @@
         <v>44957</v>
       </c>
       <c r="B39" t="n">
-        <v>39.29847616279511</v>
+        <v>35.09430297560288</v>
       </c>
       <c r="C39" t="n">
-        <v>-44.0165232192314</v>
+        <v>-46.13119949487569</v>
       </c>
       <c r="D39" t="n">
-        <v>116.4581375195329</v>
+        <v>114.1554211529988</v>
       </c>
       <c r="E39" t="n">
         <v>20</v>
@@ -1236,13 +1236,13 @@
         <v>44967</v>
       </c>
       <c r="B40" t="n">
-        <v>-12.65627507446385</v>
+        <v>-10.25007834231897</v>
       </c>
       <c r="C40" t="n">
-        <v>-88.20990199798791</v>
+        <v>-90.01767214685721</v>
       </c>
       <c r="D40" t="n">
-        <v>58.85731398712597</v>
+        <v>61.70745582658436</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -1256,13 +1256,13 @@
         <v>44971</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.5906292673536973</v>
+        <v>-4.064610909318526</v>
       </c>
       <c r="C41" t="n">
-        <v>-74.01635029536969</v>
+        <v>-79.97037515806029</v>
       </c>
       <c r="D41" t="n">
-        <v>70.16573463778001</v>
+        <v>74.49140044617472</v>
       </c>
       <c r="E41" t="n">
         <v>30</v>
@@ -1276,13 +1276,13 @@
         <v>44980</v>
       </c>
       <c r="B42" t="n">
-        <v>-37.48803227872423</v>
+        <v>-35.85239751213316</v>
       </c>
       <c r="C42" t="n">
-        <v>-113.8304024772157</v>
+        <v>-116.830835875949</v>
       </c>
       <c r="D42" t="n">
-        <v>36.84487201291697</v>
+        <v>45.13019449492094</v>
       </c>
       <c r="E42" t="n">
         <v>40</v>
@@ -1296,13 +1296,13 @@
         <v>44988</v>
       </c>
       <c r="B43" t="n">
-        <v>59.94651062858939</v>
+        <v>66.22917628261288</v>
       </c>
       <c r="C43" t="n">
-        <v>-12.4450811905255</v>
+        <v>-6.162497205207806</v>
       </c>
       <c r="D43" t="n">
-        <v>131.1110577626354</v>
+        <v>140.447164047674</v>
       </c>
       <c r="E43" t="n">
         <v>10</v>
@@ -1316,13 +1316,13 @@
         <v>44995</v>
       </c>
       <c r="B44" t="n">
-        <v>81.37045132476074</v>
+        <v>82.66578445977683</v>
       </c>
       <c r="C44" t="n">
-        <v>10.83283795552514</v>
+        <v>-0.9361917002706815</v>
       </c>
       <c r="D44" t="n">
-        <v>158.348007721926</v>
+        <v>162.7043280236264</v>
       </c>
       <c r="E44" t="n">
         <v>30</v>
@@ -1336,13 +1336,13 @@
         <v>44999</v>
       </c>
       <c r="B45" t="n">
-        <v>88.69628592723163</v>
+        <v>82.56023940735716</v>
       </c>
       <c r="C45" t="n">
-        <v>17.84819910389652</v>
+        <v>5.853670485233475</v>
       </c>
       <c r="D45" t="n">
-        <v>163.4762984383083</v>
+        <v>166.2359964015388</v>
       </c>
       <c r="E45" t="n">
         <v>10</v>
@@ -1356,13 +1356,13 @@
         <v>45006</v>
       </c>
       <c r="B46" t="n">
-        <v>2.697430643022287</v>
+        <v>-0.5129282940933404</v>
       </c>
       <c r="C46" t="n">
-        <v>-68.72698715801154</v>
+        <v>-73.43146677113231</v>
       </c>
       <c r="D46" t="n">
-        <v>78.97732893067504</v>
+        <v>73.88251438205141</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -1376,13 +1376,13 @@
         <v>45016</v>
       </c>
       <c r="B47" t="n">
-        <v>-22.02989333383849</v>
+        <v>-13.66297380098972</v>
       </c>
       <c r="C47" t="n">
-        <v>-96.50238844738641</v>
+        <v>-98.00738951472832</v>
       </c>
       <c r="D47" t="n">
-        <v>53.8148425849643</v>
+        <v>63.68740312071772</v>
       </c>
       <c r="E47" t="n">
         <v>160</v>
@@ -1396,13 +1396,13 @@
         <v>45020</v>
       </c>
       <c r="B48" t="n">
-        <v>85.75645658038864</v>
+        <v>85.44018965462769</v>
       </c>
       <c r="C48" t="n">
-        <v>15.46558703383177</v>
+        <v>2.386626886840918</v>
       </c>
       <c r="D48" t="n">
-        <v>156.5135140237298</v>
+        <v>166.006643819351</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
@@ -1416,13 +1416,13 @@
         <v>45048</v>
       </c>
       <c r="B49" t="n">
-        <v>266.1951674638013</v>
+        <v>266.0691828538159</v>
       </c>
       <c r="C49" t="n">
-        <v>193.5176561693912</v>
+        <v>190.2668340166477</v>
       </c>
       <c r="D49" t="n">
-        <v>339.676461890064</v>
+        <v>346.2719295950423</v>
       </c>
       <c r="E49" t="n">
         <v>90</v>
@@ -1436,13 +1436,13 @@
         <v>45055</v>
       </c>
       <c r="B50" t="n">
-        <v>47.85781037001676</v>
+        <v>66.91181536728217</v>
       </c>
       <c r="C50" t="n">
-        <v>-31.41281410579854</v>
+        <v>-11.95231482179659</v>
       </c>
       <c r="D50" t="n">
-        <v>123.6332633698245</v>
+        <v>146.371040549266</v>
       </c>
       <c r="E50" t="n">
         <v>50</v>
@@ -1456,13 +1456,13 @@
         <v>45062</v>
       </c>
       <c r="B51" t="n">
-        <v>-31.3298468500491</v>
+        <v>-5.630492131595346</v>
       </c>
       <c r="C51" t="n">
-        <v>-110.8858725437837</v>
+        <v>-84.76436122192716</v>
       </c>
       <c r="D51" t="n">
-        <v>43.63882160788261</v>
+        <v>74.79937215862316</v>
       </c>
       <c r="E51" t="n">
         <v>20</v>
@@ -1537,25 +1537,25 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>5053.523562827933</v>
+        <v>4818.473851309647</v>
       </c>
       <c r="C2" t="n">
-        <v>71.08813939630107</v>
+        <v>69.4152278056454</v>
       </c>
       <c r="D2" t="n">
-        <v>50.87681724222968</v>
+        <v>49.97397631130375</v>
       </c>
       <c r="E2" t="n">
-        <v>1.638976085141036</v>
+        <v>1.698803875462486</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9543424411974624</v>
+        <v>0.8836351061170501</v>
       </c>
       <c r="G2" t="n">
-        <v>1.081384215844623</v>
+        <v>1.059536861254661</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7692307692307692</v>
+        <v>0.8461538461538461</v>
       </c>
     </row>
     <row r="3">
@@ -1563,22 +1563,22 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>5491.490682690101</v>
+        <v>6582.665483765898</v>
       </c>
       <c r="C3" t="n">
-        <v>74.10459285827095</v>
+        <v>81.13362733026237</v>
       </c>
       <c r="D3" t="n">
-        <v>52.08662281814736</v>
+        <v>54.64763006674367</v>
       </c>
       <c r="E3" t="n">
-        <v>1.781591750865444</v>
+        <v>1.335768521012574</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6567174721450275</v>
+        <v>0.7704908945607605</v>
       </c>
       <c r="G3" t="n">
-        <v>1.034629369398954</v>
+        <v>0.9946558362094203</v>
       </c>
       <c r="H3" t="n">
         <v>0.875</v>
@@ -1589,22 +1589,22 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>4926.672547237182</v>
+        <v>5894.66599139122</v>
       </c>
       <c r="C4" t="n">
-        <v>70.19025963221095</v>
+        <v>76.77672818889341</v>
       </c>
       <c r="D4" t="n">
-        <v>51.99867385118489</v>
+        <v>54.93000491255795</v>
       </c>
       <c r="E4" t="n">
-        <v>1.941742180525706</v>
+        <v>1.62920985976821</v>
       </c>
       <c r="F4" t="n">
-        <v>0.453233354498383</v>
+        <v>0.6692088389708056</v>
       </c>
       <c r="G4" t="n">
-        <v>1.053120352567917</v>
+        <v>1.029161244376795</v>
       </c>
       <c r="H4" t="n">
         <v>0.9</v>
@@ -1615,25 +1615,25 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>3023.287905054193</v>
+        <v>2989.805291351915</v>
       </c>
       <c r="C5" t="n">
-        <v>54.98443329756335</v>
+        <v>54.67911202051396</v>
       </c>
       <c r="D5" t="n">
-        <v>39.95415095631879</v>
+        <v>39.44787335747024</v>
       </c>
       <c r="E5" t="n">
-        <v>1.983419909073675</v>
+        <v>1.936289151601773</v>
       </c>
       <c r="F5" t="n">
-        <v>1.041387306944897</v>
+        <v>1.110203807788386</v>
       </c>
       <c r="G5" t="n">
-        <v>1.247524521196818</v>
+        <v>1.274226867294245</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8148148148148145</v>
+        <v>0.9259259259259259</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAFAR4421408/OBAFAR4421408_Sell in_metricas.xlsx
+++ b/modelos/OBAFAR4421408/OBAFAR4421408_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44589</v>
       </c>
       <c r="B2" t="n">
-        <v>10.47284044946549</v>
+        <v>27.64827416429305</v>
       </c>
       <c r="C2" t="n">
-        <v>-77.80133375313238</v>
+        <v>-53.53336856624431</v>
       </c>
       <c r="D2" t="n">
-        <v>93.27526798287755</v>
+        <v>112.0834159486625</v>
       </c>
       <c r="E2" t="n">
         <v>90</v>
@@ -496,13 +496,13 @@
         <v>44592</v>
       </c>
       <c r="B3" t="n">
-        <v>76.05950429581507</v>
+        <v>89.44829177626293</v>
       </c>
       <c r="C3" t="n">
-        <v>-5.57589314680077</v>
+        <v>6.121750080900729</v>
       </c>
       <c r="D3" t="n">
-        <v>153.6433353946799</v>
+        <v>177.2464349791203</v>
       </c>
       <c r="E3" t="n">
         <v>20</v>
@@ -516,13 +516,13 @@
         <v>44596</v>
       </c>
       <c r="B4" t="n">
-        <v>15.48431297330962</v>
+        <v>26.89299257996371</v>
       </c>
       <c r="C4" t="n">
-        <v>-69.94894716340697</v>
+        <v>-59.79812508965998</v>
       </c>
       <c r="D4" t="n">
-        <v>97.61425948129857</v>
+        <v>112.8826605621399</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -536,13 +536,13 @@
         <v>44600</v>
       </c>
       <c r="B5" t="n">
-        <v>20.32978382983013</v>
+        <v>25.59601566714712</v>
       </c>
       <c r="C5" t="n">
-        <v>-62.71013622801545</v>
+        <v>-63.85907379742292</v>
       </c>
       <c r="D5" t="n">
-        <v>103.8442771118389</v>
+        <v>112.9183164771688</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -556,13 +556,13 @@
         <v>44607</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.782954335491155</v>
+        <v>6.330002225618088</v>
       </c>
       <c r="C6" t="n">
-        <v>-86.20065995346273</v>
+        <v>-79.82936276530484</v>
       </c>
       <c r="D6" t="n">
-        <v>71.33229424735377</v>
+        <v>93.6006914106585</v>
       </c>
       <c r="E6" t="n">
         <v>20</v>
@@ -576,13 +576,13 @@
         <v>44617</v>
       </c>
       <c r="B7" t="n">
-        <v>31.35986812959638</v>
+        <v>48.6332576991099</v>
       </c>
       <c r="C7" t="n">
-        <v>-52.35936404114187</v>
+        <v>-46.02806845948212</v>
       </c>
       <c r="D7" t="n">
-        <v>114.8351199087589</v>
+        <v>139.932777513889</v>
       </c>
       <c r="E7" t="n">
         <v>30</v>
@@ -596,13 +596,13 @@
         <v>44624</v>
       </c>
       <c r="B8" t="n">
-        <v>86.10297057460909</v>
+        <v>97.83281645705753</v>
       </c>
       <c r="C8" t="n">
-        <v>3.04248197163324</v>
+        <v>8.283816021504411</v>
       </c>
       <c r="D8" t="n">
-        <v>165.2578293041371</v>
+        <v>176.3596219915352</v>
       </c>
       <c r="E8" t="n">
         <v>20</v>
@@ -616,13 +616,13 @@
         <v>44631</v>
       </c>
       <c r="B9" t="n">
-        <v>77.57798692004816</v>
+        <v>88.38418053291603</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.433041032253756</v>
+        <v>1.33195933256853</v>
       </c>
       <c r="D9" t="n">
-        <v>155.9584666016733</v>
+        <v>170.9816965456693</v>
       </c>
       <c r="E9" t="n">
         <v>60</v>
@@ -636,13 +636,13 @@
         <v>44638</v>
       </c>
       <c r="B10" t="n">
-        <v>11.67615022197694</v>
+        <v>24.61131781102142</v>
       </c>
       <c r="C10" t="n">
-        <v>-77.50476139743601</v>
+        <v>-58.1060545326419</v>
       </c>
       <c r="D10" t="n">
-        <v>88.69186539205842</v>
+        <v>110.9356870044618</v>
       </c>
       <c r="E10" t="n">
         <v>20</v>
@@ -656,13 +656,13 @@
         <v>44642</v>
       </c>
       <c r="B11" t="n">
-        <v>-6.262078806917748</v>
+        <v>3.067133696968256</v>
       </c>
       <c r="C11" t="n">
-        <v>-87.56168624908084</v>
+        <v>-77.35035252208152</v>
       </c>
       <c r="D11" t="n">
-        <v>73.24127757981127</v>
+        <v>87.24247031012877</v>
       </c>
       <c r="E11" t="n">
         <v>50</v>
@@ -676,13 +676,13 @@
         <v>44649</v>
       </c>
       <c r="B12" t="n">
-        <v>5.038570632927476</v>
+        <v>12.64499561719873</v>
       </c>
       <c r="C12" t="n">
-        <v>-71.6433047153582</v>
+        <v>-76.04797297315575</v>
       </c>
       <c r="D12" t="n">
-        <v>86.97440296185367</v>
+        <v>100.9750150039058</v>
       </c>
       <c r="E12" t="n">
         <v>30</v>
@@ -696,13 +696,13 @@
         <v>44656</v>
       </c>
       <c r="B13" t="n">
-        <v>130.1885802464929</v>
+        <v>137.1319388417621</v>
       </c>
       <c r="C13" t="n">
-        <v>56.68585703017674</v>
+        <v>50.65171564158796</v>
       </c>
       <c r="D13" t="n">
-        <v>209.0339912423989</v>
+        <v>229.9361962785046</v>
       </c>
       <c r="E13" t="n">
         <v>20</v>
@@ -716,13 +716,13 @@
         <v>44677</v>
       </c>
       <c r="B14" t="n">
-        <v>351.2714349395723</v>
+        <v>352.3587929817193</v>
       </c>
       <c r="C14" t="n">
-        <v>268.8759199744476</v>
+        <v>266.3556652500104</v>
       </c>
       <c r="D14" t="n">
-        <v>425.5407633941448</v>
+        <v>437.079502534207</v>
       </c>
       <c r="E14" t="n">
         <v>560</v>
@@ -736,13 +736,13 @@
         <v>44684</v>
       </c>
       <c r="B15" t="n">
-        <v>255.6410813270093</v>
+        <v>261.7792340851806</v>
       </c>
       <c r="C15" t="n">
-        <v>173.52107023445</v>
+        <v>179.8917948583927</v>
       </c>
       <c r="D15" t="n">
-        <v>331.2426483756763</v>
+        <v>351.8137432759997</v>
       </c>
       <c r="E15" t="n">
         <v>200</v>
@@ -756,13 +756,13 @@
         <v>44691</v>
       </c>
       <c r="B16" t="n">
-        <v>63.40219112634048</v>
+        <v>72.07857645073342</v>
       </c>
       <c r="C16" t="n">
-        <v>-18.42035024873717</v>
+        <v>-14.3647252653185</v>
       </c>
       <c r="D16" t="n">
-        <v>142.7999499004849</v>
+        <v>158.633345050046</v>
       </c>
       <c r="E16" t="n">
         <v>40</v>
@@ -776,13 +776,13 @@
         <v>44698</v>
       </c>
       <c r="B17" t="n">
-        <v>3.307911610291944</v>
+        <v>4.255124938039647</v>
       </c>
       <c r="C17" t="n">
-        <v>-79.00195165601097</v>
+        <v>-82.00375395965261</v>
       </c>
       <c r="D17" t="n">
-        <v>80.94784813344592</v>
+        <v>90.57105047379474</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -796,13 +796,13 @@
         <v>44705</v>
       </c>
       <c r="B18" t="n">
-        <v>47.78731054575273</v>
+        <v>47.89760893685352</v>
       </c>
       <c r="C18" t="n">
-        <v>-42.27385241334147</v>
+        <v>-39.8123769847939</v>
       </c>
       <c r="D18" t="n">
-        <v>128.1001259194794</v>
+        <v>136.454202793773</v>
       </c>
       <c r="E18" t="n">
         <v>20</v>
@@ -816,13 +816,13 @@
         <v>44715</v>
       </c>
       <c r="B19" t="n">
-        <v>63.30611423365157</v>
+        <v>75.10003962952941</v>
       </c>
       <c r="C19" t="n">
-        <v>-15.80655194116193</v>
+        <v>-9.788680965775926</v>
       </c>
       <c r="D19" t="n">
-        <v>143.5759789794959</v>
+        <v>154.7896258466126</v>
       </c>
       <c r="E19" t="n">
         <v>30</v>
@@ -836,13 +836,13 @@
         <v>44719</v>
       </c>
       <c r="B20" t="n">
-        <v>60.33733564997407</v>
+        <v>66.89412268111126</v>
       </c>
       <c r="C20" t="n">
-        <v>-20.54915952653455</v>
+        <v>-23.30668970099507</v>
       </c>
       <c r="D20" t="n">
-        <v>137.7988938535364</v>
+        <v>156.7281121805333</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -856,13 +856,13 @@
         <v>44729</v>
       </c>
       <c r="B21" t="n">
-        <v>-28.11817876102084</v>
+        <v>-16.74487733465611</v>
       </c>
       <c r="C21" t="n">
-        <v>-109.7846184309114</v>
+        <v>-97.2329858910623</v>
       </c>
       <c r="D21" t="n">
-        <v>50.83926712602707</v>
+        <v>67.34021871512375</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -876,13 +876,13 @@
         <v>44733</v>
       </c>
       <c r="B22" t="n">
-        <v>-9.721550428708383</v>
+        <v>-10.74119165583179</v>
       </c>
       <c r="C22" t="n">
-        <v>-94.44081906537629</v>
+        <v>-93.07877169227085</v>
       </c>
       <c r="D22" t="n">
-        <v>71.00725312837851</v>
+        <v>68.96323503207176</v>
       </c>
       <c r="E22" t="n">
         <v>20</v>
@@ -896,13 +896,13 @@
         <v>44740</v>
       </c>
       <c r="B23" t="n">
-        <v>5.129081993971383</v>
+        <v>-0.6024957969206923</v>
       </c>
       <c r="C23" t="n">
-        <v>-72.57963392252708</v>
+        <v>-86.8796707118568</v>
       </c>
       <c r="D23" t="n">
-        <v>91.68950033156366</v>
+        <v>85.74441866359338</v>
       </c>
       <c r="E23" t="n">
         <v>40</v>
@@ -916,13 +916,13 @@
         <v>44743</v>
       </c>
       <c r="B24" t="n">
-        <v>-8.653790096545221</v>
+        <v>-7.526935412381851</v>
       </c>
       <c r="C24" t="n">
-        <v>-85.77540127835367</v>
+        <v>-85.38893417017596</v>
       </c>
       <c r="D24" t="n">
-        <v>68.63049733094083</v>
+        <v>75.56049450706662</v>
       </c>
       <c r="E24" t="n">
         <v>20</v>
@@ -936,13 +936,13 @@
         <v>44757</v>
       </c>
       <c r="B25" t="n">
-        <v>-42.61516776675589</v>
+        <v>-7.04593231607269</v>
       </c>
       <c r="C25" t="n">
-        <v>-120.4282442993517</v>
+        <v>-90.52472657116257</v>
       </c>
       <c r="D25" t="n">
-        <v>31.60735346311744</v>
+        <v>79.91129417787731</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -956,13 +956,13 @@
         <v>44761</v>
       </c>
       <c r="B26" t="n">
-        <v>-38.99953906595679</v>
+        <v>2.690470973981355</v>
       </c>
       <c r="C26" t="n">
-        <v>-114.339675614669</v>
+        <v>-82.21600114026428</v>
       </c>
       <c r="D26" t="n">
-        <v>40.95398403506931</v>
+        <v>86.78287505822</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -976,13 +976,13 @@
         <v>44803</v>
       </c>
       <c r="B27" t="n">
-        <v>-22.07279154041966</v>
+        <v>-18.27956815782795</v>
       </c>
       <c r="C27" t="n">
-        <v>-98.92703736603909</v>
+        <v>-109.1957432814517</v>
       </c>
       <c r="D27" t="n">
-        <v>56.42916903162002</v>
+        <v>67.08397409584822</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -996,13 +996,13 @@
         <v>44810</v>
       </c>
       <c r="B28" t="n">
-        <v>-5.633754481798142</v>
+        <v>-0.6141720694060511</v>
       </c>
       <c r="C28" t="n">
-        <v>-88.63305105332586</v>
+        <v>-86.15562744208509</v>
       </c>
       <c r="D28" t="n">
-        <v>74.42356990172992</v>
+        <v>81.41012001952163</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -1016,13 +1016,13 @@
         <v>44817</v>
       </c>
       <c r="B29" t="n">
-        <v>14.16673981853554</v>
+        <v>17.68284141331733</v>
       </c>
       <c r="C29" t="n">
-        <v>-62.8663848133945</v>
+        <v>-65.16729228782937</v>
       </c>
       <c r="D29" t="n">
-        <v>87.78409036258807</v>
+        <v>98.53917266914125</v>
       </c>
       <c r="E29" t="n">
         <v>30</v>
@@ -1036,13 +1036,13 @@
         <v>44824</v>
       </c>
       <c r="B30" t="n">
-        <v>26.34478711519123</v>
+        <v>24.83735551308137</v>
       </c>
       <c r="C30" t="n">
-        <v>-52.96422726482064</v>
+        <v>-52.94344665502596</v>
       </c>
       <c r="D30" t="n">
-        <v>106.2301666426392</v>
+        <v>110.513648046297</v>
       </c>
       <c r="E30" t="n">
         <v>30</v>
@@ -1056,13 +1056,13 @@
         <v>44831</v>
       </c>
       <c r="B31" t="n">
-        <v>34.01104902392209</v>
+        <v>33.63832642745798</v>
       </c>
       <c r="C31" t="n">
-        <v>-42.65609037601151</v>
+        <v>-43.87523791660675</v>
       </c>
       <c r="D31" t="n">
-        <v>112.7132852173431</v>
+        <v>116.9989449159474</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -1076,13 +1076,13 @@
         <v>44852</v>
       </c>
       <c r="B32" t="n">
-        <v>40.30483678621997</v>
+        <v>43.7774508142828</v>
       </c>
       <c r="C32" t="n">
-        <v>-39.06653606599987</v>
+        <v>-43.79352409460432</v>
       </c>
       <c r="D32" t="n">
-        <v>122.8906332479304</v>
+        <v>124.7275271521962</v>
       </c>
       <c r="E32" t="n">
         <v>30</v>
@@ -1096,13 +1096,13 @@
         <v>44918</v>
       </c>
       <c r="B33" t="n">
-        <v>39.38537476202699</v>
+        <v>47.99732498386485</v>
       </c>
       <c r="C33" t="n">
-        <v>-39.54824243923707</v>
+        <v>-33.2014560470256</v>
       </c>
       <c r="D33" t="n">
-        <v>120.6094111743608</v>
+        <v>136.6348062910927</v>
       </c>
       <c r="E33" t="n">
         <v>150</v>
@@ -1116,13 +1116,13 @@
         <v>44922</v>
       </c>
       <c r="B34" t="n">
-        <v>74.68415188276416</v>
+        <v>77.14523996311297</v>
       </c>
       <c r="C34" t="n">
-        <v>-10.36793568467514</v>
+        <v>-9.413627920306718</v>
       </c>
       <c r="D34" t="n">
-        <v>151.575199451359</v>
+        <v>161.5862152390037</v>
       </c>
       <c r="E34" t="n">
         <v>70</v>
@@ -1136,13 +1136,13 @@
         <v>44932</v>
       </c>
       <c r="B35" t="n">
-        <v>44.75226176959931</v>
+        <v>48.11143575463859</v>
       </c>
       <c r="C35" t="n">
-        <v>-36.08244156764591</v>
+        <v>-30.98304750430199</v>
       </c>
       <c r="D35" t="n">
-        <v>121.0061083159275</v>
+        <v>134.0161237317683</v>
       </c>
       <c r="E35" t="n">
         <v>50</v>
@@ -1156,13 +1156,13 @@
         <v>44936</v>
       </c>
       <c r="B36" t="n">
-        <v>33.83004547215035</v>
+        <v>33.88371372687271</v>
       </c>
       <c r="C36" t="n">
-        <v>-36.36906952901303</v>
+        <v>-44.86150602678739</v>
       </c>
       <c r="D36" t="n">
-        <v>112.8230864623506</v>
+        <v>120.1953881464615</v>
       </c>
       <c r="E36" t="n">
         <v>110</v>
@@ -1176,13 +1176,13 @@
         <v>44943</v>
       </c>
       <c r="B37" t="n">
-        <v>12.91798827593484</v>
+        <v>14.00941744688023</v>
       </c>
       <c r="C37" t="n">
-        <v>-61.02901871049737</v>
+        <v>-65.70722184666009</v>
       </c>
       <c r="D37" t="n">
-        <v>96.59047264427724</v>
+        <v>95.30151866814612</v>
       </c>
       <c r="E37" t="n">
         <v>90</v>
@@ -1196,13 +1196,13 @@
         <v>44950</v>
       </c>
       <c r="B38" t="n">
-        <v>26.75934728171208</v>
+        <v>28.60345038163457</v>
       </c>
       <c r="C38" t="n">
-        <v>-48.64459314762475</v>
+        <v>-58.47020002143064</v>
       </c>
       <c r="D38" t="n">
-        <v>104.8058992716774</v>
+        <v>113.6605338217315</v>
       </c>
       <c r="E38" t="n">
         <v>20</v>
@@ -1216,13 +1216,13 @@
         <v>44957</v>
       </c>
       <c r="B39" t="n">
-        <v>35.09430297560288</v>
+        <v>36.56385301772276</v>
       </c>
       <c r="C39" t="n">
-        <v>-46.13119949487569</v>
+        <v>-46.99879140668808</v>
       </c>
       <c r="D39" t="n">
-        <v>114.1554211529988</v>
+        <v>122.4413417701105</v>
       </c>
       <c r="E39" t="n">
         <v>20</v>
@@ -1236,13 +1236,13 @@
         <v>44967</v>
       </c>
       <c r="B40" t="n">
-        <v>-10.25007834231897</v>
+        <v>-5.333983358463534</v>
       </c>
       <c r="C40" t="n">
-        <v>-90.01767214685721</v>
+        <v>-87.89933689549149</v>
       </c>
       <c r="D40" t="n">
-        <v>61.70745582658436</v>
+        <v>77.66622017062072</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -1256,13 +1256,13 @@
         <v>44971</v>
       </c>
       <c r="B41" t="n">
-        <v>-4.064610909318526</v>
+        <v>-3.82574036062156</v>
       </c>
       <c r="C41" t="n">
-        <v>-79.97037515806029</v>
+        <v>-84.32818696549852</v>
       </c>
       <c r="D41" t="n">
-        <v>74.49140044617472</v>
+        <v>77.92692058508453</v>
       </c>
       <c r="E41" t="n">
         <v>30</v>
@@ -1276,13 +1276,13 @@
         <v>44980</v>
       </c>
       <c r="B42" t="n">
-        <v>-35.85239751213316</v>
+        <v>-35.65378323799081</v>
       </c>
       <c r="C42" t="n">
-        <v>-116.830835875949</v>
+        <v>-119.5180202875516</v>
       </c>
       <c r="D42" t="n">
-        <v>45.13019449492094</v>
+        <v>46.62372260443809</v>
       </c>
       <c r="E42" t="n">
         <v>40</v>
@@ -1296,13 +1296,13 @@
         <v>44988</v>
       </c>
       <c r="B43" t="n">
-        <v>66.22917628261288</v>
+        <v>72.92010241473969</v>
       </c>
       <c r="C43" t="n">
-        <v>-6.162497205207806</v>
+        <v>-10.65496714231294</v>
       </c>
       <c r="D43" t="n">
-        <v>140.447164047674</v>
+        <v>156.1385804909294</v>
       </c>
       <c r="E43" t="n">
         <v>10</v>
@@ -1316,13 +1316,13 @@
         <v>44995</v>
       </c>
       <c r="B44" t="n">
-        <v>82.66578445977683</v>
+        <v>85.78021666518657</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.9361917002706815</v>
+        <v>3.501573463768318</v>
       </c>
       <c r="D44" t="n">
-        <v>162.7043280236264</v>
+        <v>169.1008350420879</v>
       </c>
       <c r="E44" t="n">
         <v>30</v>
@@ -1336,13 +1336,13 @@
         <v>44999</v>
       </c>
       <c r="B45" t="n">
-        <v>82.56023940735716</v>
+        <v>80.10461069589245</v>
       </c>
       <c r="C45" t="n">
-        <v>5.853670485233475</v>
+        <v>-2.115121165539737</v>
       </c>
       <c r="D45" t="n">
-        <v>166.2359964015388</v>
+        <v>168.6040858937786</v>
       </c>
       <c r="E45" t="n">
         <v>10</v>
@@ -1356,13 +1356,13 @@
         <v>45006</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.5129282940933404</v>
+        <v>0.1205083905388236</v>
       </c>
       <c r="C46" t="n">
-        <v>-73.43146677113231</v>
+        <v>-78.94806202505261</v>
       </c>
       <c r="D46" t="n">
-        <v>73.88251438205141</v>
+        <v>79.9342596308266</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -1376,13 +1376,13 @@
         <v>45016</v>
       </c>
       <c r="B47" t="n">
-        <v>-13.66297380098972</v>
+        <v>-4.508796470467338</v>
       </c>
       <c r="C47" t="n">
-        <v>-98.00738951472832</v>
+        <v>-83.60513507998009</v>
       </c>
       <c r="D47" t="n">
-        <v>63.68740312071772</v>
+        <v>73.546044383488</v>
       </c>
       <c r="E47" t="n">
         <v>160</v>
@@ -1396,13 +1396,13 @@
         <v>45020</v>
       </c>
       <c r="B48" t="n">
-        <v>85.44018965462769</v>
+        <v>88.77520194952119</v>
       </c>
       <c r="C48" t="n">
-        <v>2.386626886840918</v>
+        <v>12.19099420285126</v>
       </c>
       <c r="D48" t="n">
-        <v>166.006643819351</v>
+        <v>173.6738092550108</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
@@ -1416,13 +1416,13 @@
         <v>45048</v>
       </c>
       <c r="B49" t="n">
-        <v>266.0691828538159</v>
+        <v>269.196350856627</v>
       </c>
       <c r="C49" t="n">
-        <v>190.2668340166477</v>
+        <v>184.5634683250779</v>
       </c>
       <c r="D49" t="n">
-        <v>346.2719295950423</v>
+        <v>356.3476183794074</v>
       </c>
       <c r="E49" t="n">
         <v>90</v>
@@ -1436,13 +1436,13 @@
         <v>45055</v>
       </c>
       <c r="B50" t="n">
-        <v>66.91181536728217</v>
+        <v>71.00060795321764</v>
       </c>
       <c r="C50" t="n">
-        <v>-11.95231482179659</v>
+        <v>-4.62346835836567</v>
       </c>
       <c r="D50" t="n">
-        <v>146.371040549266</v>
+        <v>151.4628957459676</v>
       </c>
       <c r="E50" t="n">
         <v>50</v>
@@ -1456,13 +1456,13 @@
         <v>45062</v>
       </c>
       <c r="B51" t="n">
-        <v>-5.630492131595346</v>
+        <v>-4.132265609895384</v>
       </c>
       <c r="C51" t="n">
-        <v>-84.76436122192716</v>
+        <v>-88.50615090720217</v>
       </c>
       <c r="D51" t="n">
-        <v>74.79937215862316</v>
+        <v>72.87781216395241</v>
       </c>
       <c r="E51" t="n">
         <v>20</v>
@@ -1537,22 +1537,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>4818.473851309647</v>
+        <v>4344.038899567136</v>
       </c>
       <c r="C2" t="n">
-        <v>69.4152278056454</v>
+        <v>65.90932331292088</v>
       </c>
       <c r="D2" t="n">
-        <v>49.97397631130375</v>
+        <v>48.32204318478476</v>
       </c>
       <c r="E2" t="n">
-        <v>1.698803875462486</v>
+        <v>1.594907127028591</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8836351061170501</v>
+        <v>1.028179977940421</v>
       </c>
       <c r="G2" t="n">
-        <v>1.059536861254661</v>
+        <v>1.070005042722878</v>
       </c>
       <c r="H2" t="n">
         <v>0.8461538461538461</v>
@@ -1563,22 +1563,22 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>6582.665483765898</v>
+        <v>6825.298072768705</v>
       </c>
       <c r="C3" t="n">
-        <v>81.13362733026237</v>
+        <v>82.61536220805853</v>
       </c>
       <c r="D3" t="n">
-        <v>54.64763006674367</v>
+        <v>57.92241396085906</v>
       </c>
       <c r="E3" t="n">
-        <v>1.335768521012574</v>
+        <v>1.461568831279273</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7704908945607605</v>
+        <v>0.9085134030956764</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9946558362094203</v>
+        <v>1.050342855454736</v>
       </c>
       <c r="H3" t="n">
         <v>0.875</v>
@@ -1589,22 +1589,22 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>5894.66599139122</v>
+        <v>6424.851504343153</v>
       </c>
       <c r="C4" t="n">
-        <v>76.77672818889341</v>
+        <v>80.15517141359722</v>
       </c>
       <c r="D4" t="n">
-        <v>54.93000491255795</v>
+        <v>60.22758952393983</v>
       </c>
       <c r="E4" t="n">
-        <v>1.62920985976821</v>
+        <v>1.863737982786048</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6692088389708056</v>
+        <v>0.5744875061960353</v>
       </c>
       <c r="G4" t="n">
-        <v>1.029161244376795</v>
+        <v>1.094086529942664</v>
       </c>
       <c r="H4" t="n">
         <v>0.9</v>
@@ -1615,25 +1615,25 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>2989.805291351915</v>
+        <v>2945.114382477966</v>
       </c>
       <c r="C5" t="n">
-        <v>54.67911202051396</v>
+        <v>54.26890806417581</v>
       </c>
       <c r="D5" t="n">
-        <v>39.44787335747024</v>
+        <v>37.49963726437925</v>
       </c>
       <c r="E5" t="n">
-        <v>1.936289151601773</v>
+        <v>1.730184823683798</v>
       </c>
       <c r="F5" t="n">
-        <v>1.110203807788386</v>
+        <v>0.9879491609461176</v>
       </c>
       <c r="G5" t="n">
-        <v>1.274226867294245</v>
+        <v>1.191283605445047</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9259259259259259</v>
+        <v>0.8888888888888886</v>
       </c>
     </row>
   </sheetData>
